--- a/الدوال الإحصائية - تمرين.xlsx
+++ b/الدوال الإحصائية - تمرين.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BB7E0B-56A7-4D44-8828-2AFB10D14822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SMALL LARGE RANK PERCENTRANK" sheetId="1" r:id="rId1"/>
     <sheet name="SUMPRODUCT" sheetId="2" r:id="rId2"/>
     <sheet name="COUNTIF SUMIF AVERAGEIF" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" calcMode="autoNoTable"/>
+  <calcPr calcId="191029" calcMode="autoNoTable"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,6 +24,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -473,27 +476,27 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="167" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="169" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -501,13 +504,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -515,7 +518,7 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -528,7 +531,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFC00000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -536,7 +539,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFC00000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -641,11 +644,11 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -653,13 +656,13 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -668,17 +671,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="7" fontId="0" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
@@ -694,7 +696,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
@@ -703,22 +705,22 @@
     <xf numFmtId="3" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="7" fontId="6" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -727,7 +729,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -736,9 +738,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="3"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="عادي" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1021,1640 +1023,1655 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="8"/>
-    <col min="2" max="5" width="12.85546875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="8"/>
-    <col min="7" max="7" width="23.140625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" style="8" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="8"/>
+    <col min="2" max="5" width="12.8984375" customWidth="1"/>
+    <col min="7" max="7" width="23.09765625" customWidth="1"/>
+    <col min="8" max="8" width="16.296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17">
-        <v>2010</v>
-      </c>
-      <c r="B2" s="17" t="s">
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+    </row>
+    <row r="2" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16">
+        <v>2010</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="17">
         <v>407000</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-    </row>
-    <row r="3" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17">
-        <v>2011</v>
-      </c>
-      <c r="B3" s="17" t="s">
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="16">
+        <v>2011</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="17">
         <v>725000</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="19" t="s">
+      <c r="D3" s="25"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="H3" s="21"/>
-    </row>
-    <row r="4" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17">
-        <v>2010</v>
-      </c>
-      <c r="B4" s="17" t="s">
+      <c r="H3" s="20">
+        <f>LARGE($C$2:$C$100,1)</f>
+        <v>18700000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="16">
+        <v>2010</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="17">
         <v>3400000</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="19" t="s">
+      <c r="D4" s="25"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="H4" s="21"/>
-    </row>
-    <row r="5" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17">
-        <v>2010</v>
-      </c>
-      <c r="B5" s="17" t="s">
+      <c r="H4" s="20">
+        <f>LARGE($C$2:$C$100,2)</f>
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="16">
+        <v>2010</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="17">
         <v>411000</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="19" t="s">
+      <c r="D5" s="25"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="H5" s="21"/>
-    </row>
-    <row r="6" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17">
-        <v>2010</v>
-      </c>
-      <c r="B6" s="17" t="s">
+      <c r="H5" s="20">
+        <f>LARGE($C$2:$C$100,3)</f>
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="16">
+        <v>2010</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="17">
         <v>8250000</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="19" t="s">
+      <c r="D6" s="25"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="H6" s="21"/>
-    </row>
-    <row r="7" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17">
-        <v>2011</v>
-      </c>
-      <c r="B7" s="17" t="s">
+      <c r="H6" s="20">
+        <f>SMALL($C$2:$C$100,1)</f>
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="16">
+        <v>2011</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="17">
         <v>2150000</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="19" t="s">
+      <c r="D7" s="25"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="H7" s="21"/>
-    </row>
-    <row r="8" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17">
-        <v>2011</v>
-      </c>
-      <c r="B8" s="17" t="s">
+      <c r="H7" s="20">
+        <f>SMALL($C$2:$C$100,2)</f>
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="16">
+        <v>2011</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="17">
         <v>2000000</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="19" t="s">
+      <c r="D8" s="25"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="H8" s="21"/>
-    </row>
-    <row r="9" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17">
-        <v>2011</v>
-      </c>
-      <c r="B9" s="17" t="s">
+      <c r="H8" s="20">
+        <f>SMALL($C$2:$C$100,3)</f>
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="16">
+        <v>2011</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="17">
         <v>3100000</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-    </row>
-    <row r="10" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17">
-        <v>2010</v>
-      </c>
-      <c r="B10" s="17" t="s">
+      <c r="D9" s="25"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="16">
+        <v>2010</v>
+      </c>
+      <c r="B10" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="17">
         <v>4600000</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-    </row>
-    <row r="11" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="17">
-        <v>2010</v>
-      </c>
-      <c r="B11" s="17" t="s">
+      <c r="D10" s="25"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="16">
+        <v>2010</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="17">
         <v>2350000</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-    </row>
-    <row r="12" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17">
-        <v>2010</v>
-      </c>
-      <c r="B12" s="17" t="s">
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="16">
+        <v>2010</v>
+      </c>
+      <c r="B12" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="17">
         <v>403000</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-    </row>
-    <row r="13" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="17">
-        <v>2011</v>
-      </c>
-      <c r="B13" s="17" t="s">
+      <c r="D12" s="25"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="16">
+        <v>2011</v>
+      </c>
+      <c r="B13" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="17">
         <v>4500000</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-    </row>
-    <row r="14" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="17">
-        <v>2011</v>
-      </c>
-      <c r="B14" s="17" t="s">
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="16">
+        <v>2011</v>
+      </c>
+      <c r="B14" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="17">
         <v>650000</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-    </row>
-    <row r="15" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="17">
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="16">
         <v>2012</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="17">
         <v>2000000</v>
       </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-    </row>
-    <row r="16" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="17">
+      <c r="D15" s="25"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="16">
         <v>2012</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="17">
         <v>400000</v>
       </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-    </row>
-    <row r="17" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="17">
-        <v>2011</v>
-      </c>
-      <c r="B17" s="17" t="s">
+      <c r="D16" s="25"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="16">
+        <v>2011</v>
+      </c>
+      <c r="B17" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="17">
         <v>825000</v>
       </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-    </row>
-    <row r="18" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="17">
+      <c r="D17" s="25"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="16">
         <v>2012</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="17">
         <v>405500</v>
       </c>
-      <c r="D18" s="26"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-    </row>
-    <row r="19" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="17">
-        <v>2010</v>
-      </c>
-      <c r="B19" s="17" t="s">
+      <c r="D18" s="25"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+    </row>
+    <row r="19" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="16">
+        <v>2010</v>
+      </c>
+      <c r="B19" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="17">
         <v>4185000</v>
       </c>
-      <c r="D19" s="26"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-    </row>
-    <row r="20" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="17">
-        <v>2010</v>
-      </c>
-      <c r="B20" s="17" t="s">
+      <c r="D19" s="25"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+    </row>
+    <row r="20" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="16">
+        <v>2010</v>
+      </c>
+      <c r="B20" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="17">
         <v>833333</v>
       </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-    </row>
-    <row r="21" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="17">
-        <v>2011</v>
-      </c>
-      <c r="B21" s="17" t="s">
+      <c r="D20" s="25"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="16">
+        <v>2011</v>
+      </c>
+      <c r="B21" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="17">
         <v>409500</v>
       </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-    </row>
-    <row r="22" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="17">
-        <v>2011</v>
-      </c>
-      <c r="B22" s="17" t="s">
+      <c r="D21" s="25"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+    </row>
+    <row r="22" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="16">
+        <v>2011</v>
+      </c>
+      <c r="B22" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="18">
+      <c r="C22" s="17">
         <v>401000</v>
       </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-    </row>
-    <row r="23" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="17">
-        <v>2011</v>
-      </c>
-      <c r="B23" s="17" t="s">
+      <c r="D22" s="25"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+    </row>
+    <row r="23" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="16">
+        <v>2011</v>
+      </c>
+      <c r="B23" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="17">
         <v>5250000</v>
       </c>
-      <c r="D23" s="26"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-    </row>
-    <row r="24" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="17">
-        <v>2010</v>
-      </c>
-      <c r="B24" s="17" t="s">
+      <c r="D23" s="25"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+    </row>
+    <row r="24" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="16">
+        <v>2010</v>
+      </c>
+      <c r="B24" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="17">
         <v>708333</v>
       </c>
-      <c r="D24" s="26"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-    </row>
-    <row r="25" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="17">
-        <v>2010</v>
-      </c>
-      <c r="B25" s="17" t="s">
+      <c r="D24" s="25"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+    </row>
+    <row r="25" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="16">
+        <v>2010</v>
+      </c>
+      <c r="B25" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C25" s="17">
         <v>404500</v>
       </c>
-      <c r="D25" s="26"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-    </row>
-    <row r="26" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="17">
+      <c r="D25" s="25"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+    </row>
+    <row r="26" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="16">
         <v>2012</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C26" s="17">
         <v>8500000</v>
       </c>
-      <c r="D26" s="26"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-    </row>
-    <row r="27" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="17">
+      <c r="D26" s="25"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+    </row>
+    <row r="27" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="16">
         <v>2012</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="18">
+      <c r="C27" s="17">
         <v>3450000</v>
       </c>
-      <c r="D27" s="26"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-    </row>
-    <row r="28" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="17">
-        <v>2011</v>
-      </c>
-      <c r="B28" s="17" t="s">
+      <c r="D27" s="25"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+    </row>
+    <row r="28" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="16">
+        <v>2011</v>
+      </c>
+      <c r="B28" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="18">
+      <c r="C28" s="17">
         <v>3100000</v>
       </c>
-      <c r="D28" s="26"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-    </row>
-    <row r="29" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="17">
+      <c r="D28" s="25"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+    </row>
+    <row r="29" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="16">
         <v>2012</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="18">
+      <c r="C29" s="17">
         <v>415000</v>
       </c>
-      <c r="D29" s="26"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-    </row>
-    <row r="30" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="17">
-        <v>2010</v>
-      </c>
-      <c r="B30" s="17" t="s">
+      <c r="D29" s="25"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+    </row>
+    <row r="30" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="16">
+        <v>2010</v>
+      </c>
+      <c r="B30" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="18">
+      <c r="C30" s="17">
         <v>400000</v>
       </c>
-      <c r="D30" s="26"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-    </row>
-    <row r="31" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="17">
-        <v>2010</v>
-      </c>
-      <c r="B31" s="17" t="s">
+      <c r="D30" s="25"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+    </row>
+    <row r="31" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="16">
+        <v>2010</v>
+      </c>
+      <c r="B31" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="18">
+      <c r="C31" s="17">
         <v>2550000</v>
       </c>
-      <c r="D31" s="26"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-    </row>
-    <row r="32" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="17">
-        <v>2010</v>
-      </c>
-      <c r="B32" s="17" t="s">
+      <c r="D31" s="25"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+    </row>
+    <row r="32" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="16">
+        <v>2010</v>
+      </c>
+      <c r="B32" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="18">
+      <c r="C32" s="17">
         <v>435000</v>
       </c>
-      <c r="D32" s="26"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-    </row>
-    <row r="33" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="17">
-        <v>2010</v>
-      </c>
-      <c r="B33" s="17" t="s">
+      <c r="D32" s="25"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+    </row>
+    <row r="33" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="16">
+        <v>2010</v>
+      </c>
+      <c r="B33" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="18">
+      <c r="C33" s="17">
         <v>1750000</v>
       </c>
-      <c r="D33" s="26"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-    </row>
-    <row r="34" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="17">
-        <v>2011</v>
-      </c>
-      <c r="B34" s="17" t="s">
+      <c r="D33" s="25"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+    </row>
+    <row r="34" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="16">
+        <v>2011</v>
+      </c>
+      <c r="B34" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="18">
+      <c r="C34" s="17">
         <v>435000</v>
       </c>
-      <c r="D34" s="26"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-    </row>
-    <row r="35" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="17">
-        <v>2011</v>
-      </c>
-      <c r="B35" s="17" t="s">
+      <c r="D34" s="25"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+    </row>
+    <row r="35" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="16">
+        <v>2011</v>
+      </c>
+      <c r="B35" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="18">
+      <c r="C35" s="17">
         <v>400000</v>
       </c>
-      <c r="D35" s="26"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-    </row>
-    <row r="36" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="17">
+      <c r="D35" s="25"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+    </row>
+    <row r="36" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="16">
         <v>2012</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="18">
+      <c r="C36" s="17">
         <v>400000</v>
       </c>
-      <c r="D36" s="26"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-    </row>
-    <row r="37" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="17">
+      <c r="D36" s="25"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+    </row>
+    <row r="37" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="16">
         <v>2012</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="18">
+      <c r="C37" s="17">
         <v>1000000</v>
       </c>
-      <c r="D37" s="26"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-    </row>
-    <row r="38" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="17">
-        <v>2011</v>
-      </c>
-      <c r="B38" s="17" t="s">
+      <c r="D37" s="25"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+    </row>
+    <row r="38" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="16">
+        <v>2011</v>
+      </c>
+      <c r="B38" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="18">
+      <c r="C38" s="17">
         <v>9000000</v>
       </c>
-      <c r="D38" s="26"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-    </row>
-    <row r="39" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="17">
+      <c r="D38" s="25"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+    </row>
+    <row r="39" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="16">
         <v>2012</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="18">
+      <c r="C39" s="17">
         <v>2225000</v>
       </c>
-      <c r="D39" s="26"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-    </row>
-    <row r="40" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="17">
-        <v>2010</v>
-      </c>
-      <c r="B40" s="17" t="s">
+      <c r="D39" s="25"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+    </row>
+    <row r="40" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="16">
+        <v>2010</v>
+      </c>
+      <c r="B40" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="18">
+      <c r="C40" s="17">
         <v>14000000</v>
       </c>
-      <c r="D40" s="26"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-    </row>
-    <row r="41" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="17">
-        <v>2010</v>
-      </c>
-      <c r="B41" s="17" t="s">
+      <c r="D40" s="25"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+    </row>
+    <row r="41" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="16">
+        <v>2010</v>
+      </c>
+      <c r="B41" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="18">
+      <c r="C41" s="17">
         <v>480000</v>
       </c>
-      <c r="D41" s="26"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-    </row>
-    <row r="42" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="17">
-        <v>2011</v>
-      </c>
-      <c r="B42" s="17" t="s">
+      <c r="D41" s="25"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+    </row>
+    <row r="42" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="16">
+        <v>2011</v>
+      </c>
+      <c r="B42" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="18">
+      <c r="C42" s="17">
         <v>7333666</v>
       </c>
-      <c r="D42" s="26"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-    </row>
-    <row r="43" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="17">
-        <v>2011</v>
-      </c>
-      <c r="B43" s="17" t="s">
+      <c r="D42" s="25"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+    </row>
+    <row r="43" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="16">
+        <v>2011</v>
+      </c>
+      <c r="B43" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="18">
+      <c r="C43" s="17">
         <v>15000000</v>
       </c>
-      <c r="D43" s="26"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-    </row>
-    <row r="44" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="17">
-        <v>2011</v>
-      </c>
-      <c r="B44" s="17" t="s">
+      <c r="D43" s="25"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+    </row>
+    <row r="44" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="16">
+        <v>2011</v>
+      </c>
+      <c r="B44" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="18">
+      <c r="C44" s="17">
         <v>5700000</v>
       </c>
-      <c r="D44" s="26"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-    </row>
-    <row r="45" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="17">
-        <v>2010</v>
-      </c>
-      <c r="B45" s="17" t="s">
+      <c r="D44" s="25"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+    </row>
+    <row r="45" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="16">
+        <v>2010</v>
+      </c>
+      <c r="B45" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C45" s="18">
+      <c r="C45" s="17">
         <v>5000000</v>
       </c>
-      <c r="D45" s="26"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-    </row>
-    <row r="46" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="17">
-        <v>2010</v>
-      </c>
-      <c r="B46" s="17" t="s">
+      <c r="D45" s="25"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+    </row>
+    <row r="46" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="16">
+        <v>2010</v>
+      </c>
+      <c r="B46" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="18">
+      <c r="C46" s="17">
         <v>407500</v>
       </c>
-      <c r="D46" s="26"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-    </row>
-    <row r="47" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="17">
-        <v>2010</v>
-      </c>
-      <c r="B47" s="17" t="s">
+      <c r="D46" s="25"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+    </row>
+    <row r="47" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="16">
+        <v>2010</v>
+      </c>
+      <c r="B47" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C47" s="18">
+      <c r="C47" s="17">
         <v>1150000</v>
       </c>
-      <c r="D47" s="26"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-    </row>
-    <row r="48" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="17">
-        <v>2010</v>
-      </c>
-      <c r="B48" s="17" t="s">
+      <c r="D47" s="25"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+    </row>
+    <row r="48" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="16">
+        <v>2010</v>
+      </c>
+      <c r="B48" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C48" s="18">
+      <c r="C48" s="17">
         <v>440000</v>
       </c>
-      <c r="D48" s="26"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-    </row>
-    <row r="49" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="17">
-        <v>2011</v>
-      </c>
-      <c r="B49" s="17" t="s">
+      <c r="D48" s="25"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+    </row>
+    <row r="49" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="16">
+        <v>2011</v>
+      </c>
+      <c r="B49" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C49" s="18">
+      <c r="C49" s="17">
         <v>440000</v>
       </c>
-      <c r="D49" s="26"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
-    </row>
-    <row r="50" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="17">
-        <v>2011</v>
-      </c>
-      <c r="B50" s="17" t="s">
+      <c r="D49" s="25"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+    </row>
+    <row r="50" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="16">
+        <v>2011</v>
+      </c>
+      <c r="B50" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="C50" s="18">
+      <c r="C50" s="17">
         <v>410000</v>
       </c>
-      <c r="D50" s="26"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
-    </row>
-    <row r="51" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="17">
+      <c r="D50" s="25"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+    </row>
+    <row r="51" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="16">
         <v>2012</v>
       </c>
-      <c r="B51" s="17" t="s">
+      <c r="B51" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="18">
+      <c r="C51" s="17">
         <v>1600000</v>
       </c>
-      <c r="D51" s="26"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
-    </row>
-    <row r="52" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="17">
+      <c r="D51" s="25"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+    </row>
+    <row r="52" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="16">
         <v>2012</v>
       </c>
-      <c r="B52" s="17" t="s">
+      <c r="B52" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="C52" s="18">
+      <c r="C52" s="17">
         <v>3200000</v>
       </c>
-      <c r="D52" s="26"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
-    </row>
-    <row r="53" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="17">
-        <v>2011</v>
-      </c>
-      <c r="B53" s="17" t="s">
+      <c r="D52" s="25"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+    </row>
+    <row r="53" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="16">
+        <v>2011</v>
+      </c>
+      <c r="B53" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C53" s="18">
+      <c r="C53" s="17">
         <v>402500</v>
       </c>
-      <c r="D53" s="26"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
-    </row>
-    <row r="54" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="17">
+      <c r="D53" s="25"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+    </row>
+    <row r="54" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="16">
         <v>2012</v>
       </c>
-      <c r="B54" s="17" t="s">
+      <c r="B54" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C54" s="18">
+      <c r="C54" s="17">
         <v>6750000</v>
       </c>
-      <c r="D54" s="26"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
-    </row>
-    <row r="55" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="17">
-        <v>2010</v>
-      </c>
-      <c r="B55" s="17" t="s">
+      <c r="D54" s="25"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+    </row>
+    <row r="55" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="16">
+        <v>2010</v>
+      </c>
+      <c r="B55" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C55" s="18">
+      <c r="C55" s="17">
         <v>680000</v>
       </c>
-      <c r="D55" s="26"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="16"/>
-    </row>
-    <row r="56" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="17">
-        <v>2010</v>
-      </c>
-      <c r="B56" s="17" t="s">
+      <c r="D55" s="25"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+    </row>
+    <row r="56" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="16">
+        <v>2010</v>
+      </c>
+      <c r="B56" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C56" s="18">
+      <c r="C56" s="17">
         <v>4000000</v>
       </c>
-      <c r="D56" s="26"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="16"/>
-    </row>
-    <row r="57" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="17">
-        <v>2011</v>
-      </c>
-      <c r="B57" s="17" t="s">
+      <c r="D56" s="25"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+    </row>
+    <row r="57" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="16">
+        <v>2011</v>
+      </c>
+      <c r="B57" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="18">
+      <c r="C57" s="17">
         <v>405000</v>
       </c>
-      <c r="D57" s="26"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
-      <c r="H57" s="16"/>
-    </row>
-    <row r="58" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="17">
-        <v>2011</v>
-      </c>
-      <c r="B58" s="17" t="s">
+      <c r="D57" s="25"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+    </row>
+    <row r="58" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="16">
+        <v>2011</v>
+      </c>
+      <c r="B58" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C58" s="18">
+      <c r="C58" s="17">
         <v>400000</v>
       </c>
-      <c r="D58" s="26"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="16"/>
-    </row>
-    <row r="59" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="17">
-        <v>2011</v>
-      </c>
-      <c r="B59" s="17" t="s">
+      <c r="D58" s="25"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+    </row>
+    <row r="59" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="16">
+        <v>2011</v>
+      </c>
+      <c r="B59" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="C59" s="18">
+      <c r="C59" s="17">
         <v>6000000</v>
       </c>
-      <c r="D59" s="26"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="16"/>
-      <c r="G59" s="16"/>
-      <c r="H59" s="16"/>
-    </row>
-    <row r="60" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="17">
-        <v>2010</v>
-      </c>
-      <c r="B60" s="17" t="s">
+      <c r="D59" s="25"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+    </row>
+    <row r="60" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="16">
+        <v>2010</v>
+      </c>
+      <c r="B60" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C60" s="18">
+      <c r="C60" s="17">
         <v>3000000</v>
       </c>
-      <c r="D60" s="26"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="16"/>
-      <c r="H60" s="16"/>
-    </row>
-    <row r="61" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="17">
-        <v>2010</v>
-      </c>
-      <c r="B61" s="17" t="s">
+      <c r="D60" s="25"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
+    </row>
+    <row r="61" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="16">
+        <v>2010</v>
+      </c>
+      <c r="B61" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C61" s="18">
+      <c r="C61" s="17">
         <v>1200000</v>
       </c>
-      <c r="D61" s="26"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="16"/>
-      <c r="G61" s="16"/>
-      <c r="H61" s="16"/>
-    </row>
-    <row r="62" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="17">
-        <v>2010</v>
-      </c>
-      <c r="B62" s="17" t="s">
+      <c r="D61" s="25"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+    </row>
+    <row r="62" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="16">
+        <v>2010</v>
+      </c>
+      <c r="B62" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C62" s="18">
+      <c r="C62" s="17">
         <v>402500</v>
       </c>
-      <c r="D62" s="26"/>
-      <c r="E62" s="27"/>
-      <c r="F62" s="16"/>
-      <c r="G62" s="16"/>
-      <c r="H62" s="16"/>
-    </row>
-    <row r="63" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="17">
-        <v>2010</v>
-      </c>
-      <c r="B63" s="17" t="s">
+      <c r="D62" s="25"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+    </row>
+    <row r="63" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="16">
+        <v>2010</v>
+      </c>
+      <c r="B63" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C63" s="18">
+      <c r="C63" s="17">
         <v>2600000</v>
       </c>
-      <c r="D63" s="26"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="16"/>
-      <c r="H63" s="16"/>
-    </row>
-    <row r="64" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="17">
-        <v>2011</v>
-      </c>
-      <c r="B64" s="17" t="s">
+      <c r="D63" s="25"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+    </row>
+    <row r="64" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="16">
+        <v>2011</v>
+      </c>
+      <c r="B64" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C64" s="18">
+      <c r="C64" s="17">
         <v>440000</v>
       </c>
-      <c r="D64" s="26"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="16"/>
-      <c r="G64" s="16"/>
-      <c r="H64" s="16"/>
-    </row>
-    <row r="65" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="17">
-        <v>2011</v>
-      </c>
-      <c r="B65" s="17" t="s">
+      <c r="D64" s="25"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
+    </row>
+    <row r="65" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="16">
+        <v>2011</v>
+      </c>
+      <c r="B65" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C65" s="18">
+      <c r="C65" s="17">
         <v>465000</v>
       </c>
-      <c r="D65" s="26"/>
-      <c r="E65" s="27"/>
-      <c r="F65" s="16"/>
-      <c r="G65" s="16"/>
-      <c r="H65" s="16"/>
-    </row>
-    <row r="66" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="17">
+      <c r="D65" s="25"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15"/>
+    </row>
+    <row r="66" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="16">
         <v>2012</v>
       </c>
-      <c r="B66" s="17" t="s">
+      <c r="B66" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C66" s="18">
+      <c r="C66" s="17">
         <v>9250000</v>
       </c>
-      <c r="D66" s="26"/>
-      <c r="E66" s="27"/>
-      <c r="F66" s="16"/>
-      <c r="G66" s="16"/>
-      <c r="H66" s="16"/>
-    </row>
-    <row r="67" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="17">
+      <c r="D66" s="25"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+    </row>
+    <row r="67" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="16">
         <v>2012</v>
       </c>
-      <c r="B67" s="17" t="s">
+      <c r="B67" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C67" s="18">
+      <c r="C67" s="17">
         <v>7100000</v>
       </c>
-      <c r="D67" s="26"/>
-      <c r="E67" s="27"/>
-      <c r="F67" s="16"/>
-      <c r="G67" s="16"/>
-      <c r="H67" s="16"/>
-    </row>
-    <row r="68" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="17">
-        <v>2011</v>
-      </c>
-      <c r="B68" s="17" t="s">
+      <c r="D67" s="25"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="15"/>
+    </row>
+    <row r="68" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="16">
+        <v>2011</v>
+      </c>
+      <c r="B68" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C68" s="18">
+      <c r="C68" s="17">
         <v>1300000</v>
       </c>
-      <c r="D68" s="26"/>
-      <c r="E68" s="27"/>
-      <c r="F68" s="16"/>
-      <c r="G68" s="16"/>
-      <c r="H68" s="16"/>
-    </row>
-    <row r="69" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="17">
+      <c r="D68" s="25"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
+    </row>
+    <row r="69" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="16">
         <v>2012</v>
       </c>
-      <c r="B69" s="17" t="s">
+      <c r="B69" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C69" s="18">
+      <c r="C69" s="17">
         <v>850000</v>
       </c>
-      <c r="D69" s="26"/>
-      <c r="E69" s="27"/>
-      <c r="F69" s="16"/>
-      <c r="G69" s="16"/>
-      <c r="H69" s="16"/>
-    </row>
-    <row r="70" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="17">
-        <v>2010</v>
-      </c>
-      <c r="B70" s="17" t="s">
+      <c r="D69" s="25"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
+    </row>
+    <row r="70" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="16">
+        <v>2010</v>
+      </c>
+      <c r="B70" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C70" s="18">
+      <c r="C70" s="17">
         <v>12000000</v>
       </c>
-      <c r="D70" s="26"/>
-      <c r="E70" s="27"/>
-      <c r="F70" s="16"/>
-      <c r="G70" s="16"/>
-      <c r="H70" s="16"/>
-    </row>
-    <row r="71" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="17">
-        <v>2010</v>
-      </c>
-      <c r="B71" s="17" t="s">
+      <c r="D70" s="25"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="15"/>
+    </row>
+    <row r="71" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="16">
+        <v>2010</v>
+      </c>
+      <c r="B71" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C71" s="18">
+      <c r="C71" s="17">
         <v>1350000</v>
       </c>
-      <c r="D71" s="26"/>
-      <c r="E71" s="27"/>
-      <c r="F71" s="16"/>
-      <c r="G71" s="16"/>
-      <c r="H71" s="16"/>
-    </row>
-    <row r="72" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="17">
-        <v>2011</v>
-      </c>
-      <c r="B72" s="17" t="s">
+      <c r="D71" s="25"/>
+      <c r="E71" s="26"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15"/>
+    </row>
+    <row r="72" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="16">
+        <v>2011</v>
+      </c>
+      <c r="B72" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="C72" s="18">
+      <c r="C72" s="17">
         <v>420000</v>
       </c>
-      <c r="D72" s="26"/>
-      <c r="E72" s="27"/>
-      <c r="F72" s="16"/>
-      <c r="G72" s="16"/>
-      <c r="H72" s="16"/>
-    </row>
-    <row r="73" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="17">
-        <v>2011</v>
-      </c>
-      <c r="B73" s="17" t="s">
+      <c r="D72" s="25"/>
+      <c r="E72" s="26"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15"/>
+    </row>
+    <row r="73" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="16">
+        <v>2011</v>
+      </c>
+      <c r="B73" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="C73" s="18">
+      <c r="C73" s="17">
         <v>400000</v>
       </c>
-      <c r="D73" s="26"/>
-      <c r="E73" s="27"/>
-      <c r="F73" s="16"/>
-      <c r="G73" s="16"/>
-      <c r="H73" s="16"/>
-    </row>
-    <row r="74" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="17">
-        <v>2011</v>
-      </c>
-      <c r="B74" s="17" t="s">
+      <c r="D73" s="25"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
+    </row>
+    <row r="74" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="16">
+        <v>2011</v>
+      </c>
+      <c r="B74" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C74" s="18">
+      <c r="C74" s="17">
         <v>10000000</v>
       </c>
-      <c r="D74" s="26"/>
-      <c r="E74" s="27"/>
-      <c r="F74" s="16"/>
-      <c r="G74" s="16"/>
-      <c r="H74" s="16"/>
-    </row>
-    <row r="75" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="17">
-        <v>2010</v>
-      </c>
-      <c r="B75" s="17" t="s">
+      <c r="D74" s="25"/>
+      <c r="E74" s="26"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="15"/>
+    </row>
+    <row r="75" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="16">
+        <v>2010</v>
+      </c>
+      <c r="B75" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="C75" s="18">
+      <c r="C75" s="17">
         <v>4050000</v>
       </c>
-      <c r="D75" s="26"/>
-      <c r="E75" s="27"/>
-      <c r="F75" s="16"/>
-      <c r="G75" s="16"/>
-      <c r="H75" s="16"/>
-    </row>
-    <row r="76" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="17">
-        <v>2010</v>
-      </c>
-      <c r="B76" s="17" t="s">
+      <c r="D75" s="25"/>
+      <c r="E75" s="26"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="15"/>
+    </row>
+    <row r="76" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="16">
+        <v>2010</v>
+      </c>
+      <c r="B76" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C76" s="18">
+      <c r="C76" s="17">
         <v>400000</v>
       </c>
-      <c r="D76" s="26"/>
-      <c r="E76" s="27"/>
-      <c r="F76" s="16"/>
-      <c r="G76" s="16"/>
-      <c r="H76" s="16"/>
-    </row>
-    <row r="77" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="17">
-        <v>2010</v>
-      </c>
-      <c r="B77" s="17" t="s">
+      <c r="D76" s="25"/>
+      <c r="E76" s="26"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="15"/>
+    </row>
+    <row r="77" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="16">
+        <v>2010</v>
+      </c>
+      <c r="B77" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="C77" s="18">
+      <c r="C77" s="17">
         <v>6000000</v>
       </c>
-      <c r="D77" s="26"/>
-      <c r="E77" s="27"/>
-      <c r="F77" s="16"/>
-      <c r="G77" s="16"/>
-      <c r="H77" s="16"/>
-    </row>
-    <row r="78" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="17">
-        <v>2010</v>
-      </c>
-      <c r="B78" s="17" t="s">
+      <c r="D77" s="25"/>
+      <c r="E77" s="26"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="15"/>
+    </row>
+    <row r="78" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="16">
+        <v>2010</v>
+      </c>
+      <c r="B78" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="C78" s="18">
+      <c r="C78" s="17">
         <v>5000000</v>
       </c>
-      <c r="D78" s="26"/>
-      <c r="E78" s="27"/>
-      <c r="F78" s="16"/>
-      <c r="G78" s="16"/>
-      <c r="H78" s="16"/>
-    </row>
-    <row r="79" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="17">
-        <v>2011</v>
-      </c>
-      <c r="B79" s="17" t="s">
+      <c r="D78" s="25"/>
+      <c r="E78" s="26"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="15"/>
+    </row>
+    <row r="79" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="16">
+        <v>2011</v>
+      </c>
+      <c r="B79" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="C79" s="18">
+      <c r="C79" s="17">
         <v>400000</v>
       </c>
-      <c r="D79" s="26"/>
-      <c r="E79" s="27"/>
-      <c r="F79" s="16"/>
-      <c r="G79" s="16"/>
-      <c r="H79" s="16"/>
-    </row>
-    <row r="80" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="17">
-        <v>2011</v>
-      </c>
-      <c r="B80" s="17" t="s">
+      <c r="D79" s="25"/>
+      <c r="E79" s="26"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="15"/>
+    </row>
+    <row r="80" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="16">
+        <v>2011</v>
+      </c>
+      <c r="B80" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="C80" s="18">
+      <c r="C80" s="17">
         <v>3500000</v>
       </c>
-      <c r="D80" s="26"/>
-      <c r="E80" s="27"/>
-      <c r="F80" s="16"/>
-      <c r="G80" s="16"/>
-      <c r="H80" s="16"/>
-    </row>
-    <row r="81" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="17">
+      <c r="D80" s="25"/>
+      <c r="E80" s="26"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="15"/>
+      <c r="H80" s="15"/>
+    </row>
+    <row r="81" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="16">
         <v>2012</v>
       </c>
-      <c r="B81" s="17" t="s">
+      <c r="B81" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C81" s="18">
+      <c r="C81" s="17">
         <v>420000</v>
       </c>
-      <c r="D81" s="26"/>
-      <c r="E81" s="27"/>
-      <c r="F81" s="16"/>
-      <c r="G81" s="16"/>
-      <c r="H81" s="16"/>
-    </row>
-    <row r="82" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="17">
+      <c r="D81" s="25"/>
+      <c r="E81" s="26"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="15"/>
+      <c r="H81" s="15"/>
+    </row>
+    <row r="82" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="16">
         <v>2012</v>
       </c>
-      <c r="B82" s="17" t="s">
+      <c r="B82" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C82" s="18">
+      <c r="C82" s="17">
         <v>415500</v>
       </c>
-      <c r="D82" s="26"/>
-      <c r="E82" s="27"/>
-      <c r="F82" s="16"/>
-      <c r="G82" s="16"/>
-      <c r="H82" s="16"/>
-    </row>
-    <row r="83" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="17">
-        <v>2011</v>
-      </c>
-      <c r="B83" s="17" t="s">
+      <c r="D82" s="25"/>
+      <c r="E82" s="26"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="15"/>
+      <c r="H82" s="15"/>
+    </row>
+    <row r="83" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="16">
+        <v>2011</v>
+      </c>
+      <c r="B83" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="C83" s="18">
+      <c r="C83" s="17">
         <v>12100000</v>
       </c>
-      <c r="D83" s="26"/>
-      <c r="E83" s="27"/>
-      <c r="F83" s="16"/>
-      <c r="G83" s="16"/>
-      <c r="H83" s="16"/>
-    </row>
-    <row r="84" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="17">
+      <c r="D83" s="25"/>
+      <c r="E83" s="26"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="15"/>
+      <c r="H83" s="15"/>
+    </row>
+    <row r="84" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="16">
         <v>2012</v>
       </c>
-      <c r="B84" s="17" t="s">
+      <c r="B84" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="C84" s="18">
+      <c r="C84" s="17">
         <v>9000000</v>
       </c>
-      <c r="D84" s="26"/>
-      <c r="E84" s="27"/>
-      <c r="F84" s="16"/>
-      <c r="G84" s="16"/>
-      <c r="H84" s="16"/>
-    </row>
-    <row r="85" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="17">
-        <v>2010</v>
-      </c>
-      <c r="B85" s="17" t="s">
+      <c r="D84" s="25"/>
+      <c r="E84" s="26"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="15"/>
+    </row>
+    <row r="85" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="16">
+        <v>2010</v>
+      </c>
+      <c r="B85" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="C85" s="18">
+      <c r="C85" s="17">
         <v>650000</v>
       </c>
-      <c r="D85" s="26"/>
-      <c r="E85" s="27"/>
-      <c r="F85" s="16"/>
-      <c r="G85" s="16"/>
-      <c r="H85" s="16"/>
-    </row>
-    <row r="86" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="17">
-        <v>2010</v>
-      </c>
-      <c r="B86" s="17" t="s">
+      <c r="D85" s="25"/>
+      <c r="E85" s="26"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="15"/>
+      <c r="H85" s="15"/>
+    </row>
+    <row r="86" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="16">
+        <v>2010</v>
+      </c>
+      <c r="B86" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="C86" s="18">
+      <c r="C86" s="17">
         <v>443000</v>
       </c>
-      <c r="D86" s="26"/>
-      <c r="E86" s="27"/>
-      <c r="F86" s="16"/>
-      <c r="G86" s="16"/>
-      <c r="H86" s="16"/>
-    </row>
-    <row r="87" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="17">
-        <v>2011</v>
-      </c>
-      <c r="B87" s="17" t="s">
+      <c r="D86" s="25"/>
+      <c r="E86" s="26"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="15"/>
+      <c r="H86" s="15"/>
+    </row>
+    <row r="87" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="16">
+        <v>2011</v>
+      </c>
+      <c r="B87" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="C87" s="18">
+      <c r="C87" s="17">
         <v>7750000</v>
       </c>
-      <c r="D87" s="26"/>
-      <c r="E87" s="27"/>
-      <c r="F87" s="16"/>
-      <c r="G87" s="16"/>
-      <c r="H87" s="16"/>
-    </row>
-    <row r="88" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="17">
-        <v>2011</v>
-      </c>
-      <c r="B88" s="17" t="s">
+      <c r="D87" s="25"/>
+      <c r="E87" s="26"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="15"/>
+      <c r="H87" s="15"/>
+    </row>
+    <row r="88" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="16">
+        <v>2011</v>
+      </c>
+      <c r="B88" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C88" s="18">
+      <c r="C88" s="17">
         <v>905000</v>
       </c>
-      <c r="D88" s="26"/>
-      <c r="E88" s="27"/>
-      <c r="F88" s="16"/>
-      <c r="G88" s="16"/>
-      <c r="H88" s="16"/>
-    </row>
-    <row r="89" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="17">
-        <v>2011</v>
-      </c>
-      <c r="B89" s="17" t="s">
+      <c r="D88" s="25"/>
+      <c r="E88" s="26"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="15"/>
+      <c r="H88" s="15"/>
+    </row>
+    <row r="89" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="16">
+        <v>2011</v>
+      </c>
+      <c r="B89" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="C89" s="18">
+      <c r="C89" s="17">
         <v>14000000</v>
       </c>
-      <c r="D89" s="26"/>
-      <c r="E89" s="27"/>
-      <c r="F89" s="16"/>
-      <c r="G89" s="16"/>
-      <c r="H89" s="16"/>
-    </row>
-    <row r="90" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="17">
-        <v>2010</v>
-      </c>
-      <c r="B90" s="17" t="s">
+      <c r="D89" s="25"/>
+      <c r="E89" s="26"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="15"/>
+      <c r="H89" s="15"/>
+    </row>
+    <row r="90" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="16">
+        <v>2010</v>
+      </c>
+      <c r="B90" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="C90" s="18">
+      <c r="C90" s="17">
         <v>496500</v>
       </c>
-      <c r="D90" s="26"/>
-      <c r="E90" s="27"/>
-      <c r="F90" s="16"/>
-      <c r="G90" s="16"/>
-      <c r="H90" s="16"/>
-    </row>
-    <row r="91" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="17">
-        <v>2010</v>
-      </c>
-      <c r="B91" s="17" t="s">
+      <c r="D90" s="25"/>
+      <c r="E90" s="26"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="15"/>
+      <c r="H90" s="15"/>
+    </row>
+    <row r="91" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="16">
+        <v>2010</v>
+      </c>
+      <c r="B91" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C91" s="18">
+      <c r="C91" s="17">
         <v>8525000</v>
       </c>
-      <c r="D91" s="26"/>
-      <c r="E91" s="27"/>
-      <c r="F91" s="16"/>
-      <c r="G91" s="16"/>
-      <c r="H91" s="16"/>
-    </row>
-    <row r="92" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="17">
+      <c r="D91" s="25"/>
+      <c r="E91" s="26"/>
+      <c r="F91" s="15"/>
+      <c r="G91" s="15"/>
+      <c r="H91" s="15"/>
+    </row>
+    <row r="92" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="16">
         <v>2012</v>
       </c>
-      <c r="B92" s="17" t="s">
+      <c r="B92" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C92" s="18">
+      <c r="C92" s="17">
         <v>3345000</v>
       </c>
-      <c r="D92" s="26"/>
-      <c r="E92" s="27"/>
-      <c r="F92" s="16"/>
-      <c r="G92" s="16"/>
-      <c r="H92" s="16"/>
-    </row>
-    <row r="93" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="17">
-        <v>2011</v>
-      </c>
-      <c r="B93" s="17" t="s">
+      <c r="D92" s="25"/>
+      <c r="E92" s="26"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="15"/>
+      <c r="H92" s="15"/>
+    </row>
+    <row r="93" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="16">
+        <v>2011</v>
+      </c>
+      <c r="B93" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C93" s="18">
+      <c r="C93" s="17">
         <v>18700000</v>
       </c>
-      <c r="D93" s="26"/>
-      <c r="E93" s="27"/>
-      <c r="F93" s="16"/>
-      <c r="G93" s="16"/>
-      <c r="H93" s="16"/>
-    </row>
-    <row r="94" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="17">
+      <c r="D93" s="25"/>
+      <c r="E93" s="26"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="15"/>
+      <c r="H93" s="15"/>
+    </row>
+    <row r="94" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="16">
         <v>2012</v>
       </c>
-      <c r="B94" s="17" t="s">
+      <c r="B94" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C94" s="18">
+      <c r="C94" s="17">
         <v>3750000</v>
       </c>
-      <c r="D94" s="26"/>
-      <c r="E94" s="27"/>
-      <c r="F94" s="16"/>
-      <c r="G94" s="16"/>
-      <c r="H94" s="16"/>
-    </row>
-    <row r="95" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="17">
-        <v>2010</v>
-      </c>
-      <c r="B95" s="17" t="s">
+      <c r="D94" s="25"/>
+      <c r="E94" s="26"/>
+      <c r="F94" s="15"/>
+      <c r="G94" s="15"/>
+      <c r="H94" s="15"/>
+    </row>
+    <row r="95" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="16">
+        <v>2010</v>
+      </c>
+      <c r="B95" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C95" s="18">
+      <c r="C95" s="17">
         <v>12500000</v>
       </c>
-      <c r="D95" s="26"/>
-      <c r="E95" s="27"/>
-      <c r="F95" s="16"/>
-      <c r="G95" s="16"/>
-      <c r="H95" s="16"/>
-    </row>
-    <row r="96" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="17">
-        <v>2010</v>
-      </c>
-      <c r="B96" s="17" t="s">
+      <c r="D95" s="25"/>
+      <c r="E95" s="26"/>
+      <c r="F95" s="15"/>
+      <c r="G95" s="15"/>
+      <c r="H95" s="15"/>
+    </row>
+    <row r="96" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="16">
+        <v>2010</v>
+      </c>
+      <c r="B96" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="C96" s="18">
+      <c r="C96" s="17">
         <v>434000</v>
       </c>
-      <c r="D96" s="26"/>
-      <c r="E96" s="27"/>
-      <c r="F96" s="16"/>
-      <c r="G96" s="16"/>
-      <c r="H96" s="16"/>
-    </row>
-    <row r="97" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="17">
-        <v>2011</v>
-      </c>
-      <c r="B97" s="17" t="s">
+      <c r="D96" s="25"/>
+      <c r="E96" s="26"/>
+      <c r="F96" s="15"/>
+      <c r="G96" s="15"/>
+      <c r="H96" s="15"/>
+    </row>
+    <row r="97" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="16">
+        <v>2011</v>
+      </c>
+      <c r="B97" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C97" s="18">
+      <c r="C97" s="17">
         <v>7700000</v>
       </c>
-      <c r="D97" s="26"/>
-      <c r="E97" s="27"/>
-      <c r="F97" s="16"/>
-      <c r="G97" s="16"/>
-      <c r="H97" s="16"/>
-    </row>
-    <row r="98" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="17">
-        <v>2011</v>
-      </c>
-      <c r="B98" s="17" t="s">
+      <c r="D97" s="25"/>
+      <c r="E97" s="26"/>
+      <c r="F97" s="15"/>
+      <c r="G97" s="15"/>
+      <c r="H97" s="15"/>
+    </row>
+    <row r="98" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="16">
+        <v>2011</v>
+      </c>
+      <c r="B98" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="C98" s="18">
+      <c r="C98" s="17">
         <v>8333333</v>
       </c>
-      <c r="D98" s="26"/>
-      <c r="E98" s="27"/>
-      <c r="F98" s="16"/>
-      <c r="G98" s="16"/>
-      <c r="H98" s="16"/>
-    </row>
-    <row r="99" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="17">
-        <v>2011</v>
-      </c>
-      <c r="B99" s="17" t="s">
+      <c r="D98" s="25"/>
+      <c r="E98" s="26"/>
+      <c r="F98" s="15"/>
+      <c r="G98" s="15"/>
+      <c r="H98" s="15"/>
+    </row>
+    <row r="99" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="16">
+        <v>2011</v>
+      </c>
+      <c r="B99" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C99" s="18">
+      <c r="C99" s="17">
         <v>2750000</v>
       </c>
-      <c r="D99" s="26"/>
-      <c r="E99" s="27"/>
-      <c r="F99" s="16"/>
-      <c r="G99" s="16"/>
-      <c r="H99" s="16"/>
-    </row>
-    <row r="100" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="17">
-        <v>2010</v>
-      </c>
-      <c r="B100" s="17" t="s">
+      <c r="D99" s="25"/>
+      <c r="E99" s="26"/>
+      <c r="F99" s="15"/>
+      <c r="G99" s="15"/>
+      <c r="H99" s="15"/>
+    </row>
+    <row r="100" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="16">
+        <v>2010</v>
+      </c>
+      <c r="B100" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="C100" s="18">
+      <c r="C100" s="17">
         <v>13000000</v>
       </c>
-      <c r="D100" s="26"/>
-      <c r="E100" s="27"/>
-      <c r="F100" s="16"/>
-      <c r="G100" s="16"/>
-      <c r="H100" s="16"/>
-    </row>
-    <row r="101" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="D100" s="25"/>
+      <c r="E100" s="26"/>
+      <c r="F100" s="15"/>
+      <c r="G100" s="15"/>
+      <c r="H100" s="15"/>
+    </row>
+    <row r="101" spans="1:8" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2662,602 +2679,599 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" style="9" customWidth="1"/>
-    <col min="2" max="5" width="12" style="9" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="8"/>
-    <col min="8" max="11" width="14.85546875" style="8" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="8"/>
-    <col min="13" max="13" width="33.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="9.59765625" style="8" customWidth="1"/>
+    <col min="2" max="5" width="12" style="8" customWidth="1"/>
+    <col min="8" max="11" width="14.8984375" customWidth="1"/>
+    <col min="13" max="13" width="33.59765625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10"/>
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9"/>
+      <c r="B1" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="10" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="11">
         <v>15</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="11">
         <v>17.68</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="11">
         <v>30.33</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="11">
         <v>4.0199999999999996</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="J2" s="14">
+      <c r="J2" s="13">
         <v>100</v>
       </c>
-      <c r="K2" s="22">
+      <c r="K2" s="21">
         <v>5</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="N2" s="20"/>
-    </row>
-    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="N2" s="19"/>
+    </row>
+    <row r="3" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="11">
         <v>12.86</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="11">
         <v>15.47</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <v>28.4</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="11">
         <v>1.88</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="13">
         <v>200</v>
       </c>
-      <c r="K3" s="22">
+      <c r="K3" s="21">
         <v>3</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="M3" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="N3" s="21"/>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="N3" s="20"/>
+    </row>
+    <row r="4" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="11">
         <v>13.79</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="11">
         <v>9.67</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <v>20.43</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="11">
         <v>7.02</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="13">
         <v>50</v>
       </c>
-      <c r="K4" s="22">
+      <c r="K4" s="21">
         <v>10</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="M4" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="N4" s="21"/>
-    </row>
-    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="N4" s="20"/>
+    </row>
+    <row r="5" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="11">
         <v>31.06</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>17.23</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>8.56</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="11">
         <v>28.13</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="13">
         <v>75</v>
       </c>
-      <c r="K5" s="22">
+      <c r="K5" s="21">
         <v>15</v>
       </c>
-      <c r="M5" s="13" t="s">
+      <c r="M5" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="N5" s="21"/>
-    </row>
-    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H6" s="14" t="s">
+      <c r="N5" s="20"/>
+    </row>
+    <row r="6" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="J6" s="14">
+      <c r="J6" s="13">
         <v>150</v>
       </c>
-      <c r="K6" s="22">
+      <c r="K6" s="21">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H7" s="14" t="s">
+    <row r="7" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H7" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="13">
         <v>75</v>
       </c>
-      <c r="K7" s="22">
+      <c r="K7" s="21">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11" t="s">
+    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="13">
         <v>75</v>
       </c>
-      <c r="K8" s="22">
+      <c r="K8" s="21">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="13">
         <v>50</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="13">
         <v>10</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="13">
         <v>75</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="13">
         <v>150</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="13">
         <v>150</v>
       </c>
-      <c r="K9" s="22">
+      <c r="K9" s="21">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="13">
         <v>25</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="13">
         <v>50</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="13">
         <v>0</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="13">
         <v>100</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="13">
         <v>75</v>
       </c>
-      <c r="K10" s="22">
+      <c r="K10" s="21">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+    <row r="11" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="13">
         <v>100</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="13">
         <v>150</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="13">
         <v>50</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="13">
         <v>75</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="I11" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="13">
         <v>150</v>
       </c>
-      <c r="K11" s="22">
+      <c r="K11" s="21">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
+    <row r="12" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="13">
         <v>0</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="13">
         <v>25</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="13">
         <v>100</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="13">
         <v>50</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="H12" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="I12" s="14" t="s">
+      <c r="I12" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="13">
         <v>100</v>
       </c>
-      <c r="K12" s="22">
+      <c r="K12" s="21">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H13" s="14" t="s">
+    <row r="13" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H13" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="I13" s="14" t="s">
+      <c r="I13" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="13">
         <v>50</v>
       </c>
-      <c r="K13" s="22">
+      <c r="K13" s="21">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H14" s="14" t="s">
+    <row r="14" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H14" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="I14" s="14" t="s">
+      <c r="I14" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="13">
         <v>200</v>
       </c>
-      <c r="K14" s="22">
+      <c r="K14" s="21">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="28" t="s">
+    <row r="15" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="H15" s="14" t="s">
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="H15" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="I15" s="14" t="s">
+      <c r="I15" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="13">
         <v>50</v>
       </c>
-      <c r="K15" s="22">
+      <c r="K15" s="21">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="H16" s="14" t="s">
+    <row r="16" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="H16" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="I16" s="14" t="s">
+      <c r="I16" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="13">
         <v>100</v>
       </c>
-      <c r="K16" s="22">
+      <c r="K16" s="21">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="8:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H17" s="14" t="s">
+      <c r="H17" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="I17" s="14" t="s">
+      <c r="I17" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="13">
         <v>150</v>
       </c>
-      <c r="K17" s="22">
+      <c r="K17" s="21">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="8:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H18" s="14" t="s">
+    <row r="18" spans="8:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H18" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="I18" s="14" t="s">
+      <c r="I18" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J18" s="13">
         <v>200</v>
       </c>
-      <c r="K18" s="22">
+      <c r="K18" s="21">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="8:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H19" s="14" t="s">
+    <row r="19" spans="8:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H19" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="I19" s="14" t="s">
+      <c r="I19" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J19" s="13">
         <v>75</v>
       </c>
-      <c r="K19" s="22">
+      <c r="K19" s="21">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="8:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H20" s="14" t="s">
+    <row r="20" spans="8:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H20" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="I20" s="14" t="s">
+      <c r="I20" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J20" s="13">
         <v>150</v>
       </c>
-      <c r="K20" s="22">
+      <c r="K20" s="21">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="8:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H21" s="14" t="s">
+    <row r="21" spans="8:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H21" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="I21" s="14" t="s">
+      <c r="I21" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J21" s="14">
+      <c r="J21" s="13">
         <v>50</v>
       </c>
-      <c r="K21" s="22">
+      <c r="K21" s="21">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="8:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H22" s="14" t="s">
+    <row r="22" spans="8:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H22" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="I22" s="14" t="s">
+      <c r="I22" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="J22" s="14">
+      <c r="J22" s="13">
         <v>75</v>
       </c>
-      <c r="K22" s="22">
+      <c r="K22" s="21">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="8:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H23" s="14" t="s">
+    <row r="23" spans="8:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H23" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="I23" s="14" t="s">
+      <c r="I23" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="J23" s="14">
+      <c r="J23" s="13">
         <v>100</v>
       </c>
-      <c r="K23" s="22">
+      <c r="K23" s="21">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="8:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H24" s="14" t="s">
+    <row r="24" spans="8:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H24" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="I24" s="14" t="s">
+      <c r="I24" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="J24" s="14">
+      <c r="J24" s="13">
         <v>200</v>
       </c>
-      <c r="K24" s="22">
+      <c r="K24" s="21">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="8:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H25" s="14" t="s">
+    <row r="25" spans="8:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H25" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="I25" s="14" t="s">
+      <c r="I25" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="J25" s="14">
+      <c r="J25" s="13">
         <v>200</v>
       </c>
-      <c r="K25" s="22">
+      <c r="K25" s="21">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="8:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H26" s="14" t="s">
+    <row r="26" spans="8:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H26" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="I26" s="14" t="s">
+      <c r="I26" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="J26" s="14">
+      <c r="J26" s="13">
         <v>75</v>
       </c>
-      <c r="K26" s="22">
+      <c r="K26" s="21">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="8:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H27" s="14" t="s">
+    <row r="27" spans="8:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H27" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="I27" s="14" t="s">
+      <c r="I27" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="J27" s="14">
+      <c r="J27" s="13">
         <v>100</v>
       </c>
-      <c r="K27" s="22">
+      <c r="K27" s="21">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="8:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H28" s="14" t="s">
+    <row r="28" spans="8:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H28" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="I28" s="14" t="s">
+      <c r="I28" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="J28" s="14">
+      <c r="J28" s="13">
         <v>150</v>
       </c>
-      <c r="K28" s="22">
+      <c r="K28" s="21">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="8:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H29" s="14" t="s">
+    <row r="29" spans="8:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H29" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="I29" s="14" t="s">
+      <c r="I29" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="J29" s="14">
+      <c r="J29" s="13">
         <v>50</v>
       </c>
-      <c r="K29" s="22">
+      <c r="K29" s="21">
         <v>2</v>
       </c>
     </row>
@@ -3272,41 +3286,41 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M100"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="13.140625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="16"/>
-    <col min="8" max="8" width="15" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="16.42578125" style="16" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="16"/>
-    <col min="13" max="13" width="0" style="16" hidden="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="6" width="13.09765625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="9.09765625" style="15"/>
+    <col min="8" max="8" width="15" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="16.3984375" style="15" customWidth="1"/>
+    <col min="12" max="12" width="9.09765625" style="15"/>
+    <col min="13" max="13" width="0" style="15" hidden="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.09765625" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3331,13 +3345,13 @@
         <f>PERCENTRANK($D$2:$D$100,D2)</f>
         <v>0.153</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="J2" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="K2" s="30"/>
+      <c r="J2" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="K2" s="29"/>
       <c r="M2" s="2" t="s">
         <v>133</v>
       </c>
@@ -3367,7 +3381,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2010</v>
       </c>
@@ -3389,20 +3403,20 @@
         <v>0.64200000000000002</v>
       </c>
       <c r="H4" s="6"/>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="10" t="s">
         <v>131</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2010</v>
       </c>
@@ -3426,14 +3440,17 @@
       <c r="H5" s="7">
         <v>2010</v>
       </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="25"/>
+      <c r="I5" s="22">
+        <f>SUMIFS($D$2:$D$100,$A$2:$A$100,H5,$B$2:$B$100,$J$2)</f>
+        <v>23579833</v>
+      </c>
+      <c r="J5" s="23"/>
+      <c r="K5" s="24"/>
       <c r="M5" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>2010</v>
       </c>
@@ -3457,14 +3474,17 @@
       <c r="H6" s="7">
         <v>2011</v>
       </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="25"/>
+      <c r="I6" s="22">
+        <f t="shared" ref="I6:I7" si="2">SUMIFS($D$2:$D$100,$A$2:$A$100,H6,$B$2:$B$100,$J$2)</f>
+        <v>87787500</v>
+      </c>
+      <c r="J6" s="23"/>
+      <c r="K6" s="24"/>
       <c r="M6" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>2011</v>
       </c>
@@ -3488,11 +3508,14 @@
       <c r="H7" s="7">
         <v>2012</v>
       </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="25"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="22">
+        <f t="shared" si="2"/>
+        <v>46345000</v>
+      </c>
+      <c r="J7" s="23"/>
+      <c r="K7" s="24"/>
+    </row>
+    <row r="8" spans="1:13" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2011</v>
       </c>
@@ -4814,11 +4837,11 @@
         <v>7100000</v>
       </c>
       <c r="E67" s="4">
-        <f t="shared" ref="E67:E100" si="2">RANK(D67,$D$2:$D$100)</f>
+        <f t="shared" ref="E67:E100" si="3">RANK(D67,$D$2:$D$100)</f>
         <v>20</v>
       </c>
       <c r="F67" s="5">
-        <f t="shared" ref="F67:F100" si="3">PERCENTRANK($D$2:$D$100,D67)</f>
+        <f t="shared" ref="F67:F100" si="4">PERCENTRANK($D$2:$D$100,D67)</f>
         <v>0.80600000000000005</v>
       </c>
     </row>
@@ -4836,11 +4859,11 @@
         <v>1300000</v>
       </c>
       <c r="E68" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>53</v>
       </c>
       <c r="F68" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.46899999999999997</v>
       </c>
     </row>
@@ -4858,11 +4881,11 @@
         <v>850000</v>
       </c>
       <c r="E69" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
       <c r="F69" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.41799999999999998</v>
       </c>
     </row>
@@ -4880,11 +4903,11 @@
         <v>12000000</v>
       </c>
       <c r="E70" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="F70" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.92800000000000005</v>
       </c>
     </row>
@@ -4902,11 +4925,11 @@
         <v>1350000</v>
       </c>
       <c r="E71" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>52</v>
       </c>
       <c r="F71" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.47899999999999998</v>
       </c>
     </row>
@@ -4924,11 +4947,11 @@
         <v>420000</v>
       </c>
       <c r="E72" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>76</v>
       </c>
       <c r="F72" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.224</v>
       </c>
     </row>
@@ -4946,11 +4969,11 @@
         <v>400000</v>
       </c>
       <c r="E73" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>92</v>
       </c>
       <c r="F73" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4968,11 +4991,11 @@
         <v>10000000</v>
       </c>
       <c r="E74" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F74" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.91800000000000004</v>
       </c>
     </row>
@@ -4990,11 +5013,11 @@
         <v>4050000</v>
       </c>
       <c r="E75" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="F75" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.69299999999999995</v>
       </c>
     </row>
@@ -5012,11 +5035,11 @@
         <v>400000</v>
       </c>
       <c r="E76" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>92</v>
       </c>
       <c r="F76" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5034,11 +5057,11 @@
         <v>6000000</v>
       </c>
       <c r="E77" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="F77" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.77500000000000002</v>
       </c>
     </row>
@@ -5056,11 +5079,11 @@
         <v>5000000</v>
       </c>
       <c r="E78" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="F78" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.73399999999999999</v>
       </c>
     </row>
@@ -5078,11 +5101,11 @@
         <v>400000</v>
       </c>
       <c r="E79" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>92</v>
       </c>
       <c r="F79" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5100,11 +5123,11 @@
         <v>3500000</v>
       </c>
       <c r="E80" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="F80" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.66300000000000003</v>
       </c>
     </row>
@@ -5122,11 +5145,11 @@
         <v>420000</v>
       </c>
       <c r="E81" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>76</v>
       </c>
       <c r="F81" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.224</v>
       </c>
     </row>
@@ -5144,11 +5167,11 @@
         <v>415500</v>
       </c>
       <c r="E82" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>78</v>
       </c>
       <c r="F82" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.214</v>
       </c>
     </row>
@@ -5166,11 +5189,11 @@
         <v>12100000</v>
       </c>
       <c r="E83" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="F83" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.93799999999999994</v>
       </c>
     </row>
@@ -5188,11 +5211,11 @@
         <v>9000000</v>
       </c>
       <c r="E84" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="F84" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.88700000000000001</v>
       </c>
     </row>
@@ -5210,11 +5233,11 @@
         <v>650000</v>
       </c>
       <c r="E85" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
       <c r="F85" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.34599999999999997</v>
       </c>
     </row>
@@ -5232,11 +5255,11 @@
         <v>443000</v>
       </c>
       <c r="E86" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>69</v>
       </c>
       <c r="F86" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.30599999999999999</v>
       </c>
     </row>
@@ -5254,11 +5277,11 @@
         <v>7750000</v>
       </c>
       <c r="E87" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="F87" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.83599999999999997</v>
       </c>
     </row>
@@ -5276,11 +5299,11 @@
         <v>905000</v>
       </c>
       <c r="E88" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>57</v>
       </c>
       <c r="F88" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.42799999999999999</v>
       </c>
     </row>
@@ -5298,11 +5321,11 @@
         <v>14000000</v>
       </c>
       <c r="E89" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="F89" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.96899999999999997</v>
       </c>
     </row>
@@ -5320,11 +5343,11 @@
         <v>496500</v>
       </c>
       <c r="E90" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>66</v>
       </c>
       <c r="F90" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.33600000000000002</v>
       </c>
     </row>
@@ -5342,11 +5365,11 @@
         <v>8525000</v>
       </c>
       <c r="E91" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="F91" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.877</v>
       </c>
     </row>
@@ -5364,11 +5387,11 @@
         <v>3345000</v>
       </c>
       <c r="E92" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="F92" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.63200000000000001</v>
       </c>
     </row>
@@ -5386,11 +5409,11 @@
         <v>18700000</v>
       </c>
       <c r="E93" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F93" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -5408,11 +5431,11 @@
         <v>3750000</v>
       </c>
       <c r="E94" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="F94" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.67300000000000004</v>
       </c>
     </row>
@@ -5430,11 +5453,11 @@
         <v>12500000</v>
       </c>
       <c r="E95" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="F95" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.94799999999999995</v>
       </c>
     </row>
@@ -5452,11 +5475,11 @@
         <v>434000</v>
       </c>
       <c r="E96" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
       <c r="F96" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.24399999999999999</v>
       </c>
     </row>
@@ -5474,11 +5497,11 @@
         <v>7700000</v>
       </c>
       <c r="E97" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="F97" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.82599999999999996</v>
       </c>
     </row>
@@ -5496,11 +5519,11 @@
         <v>8333333</v>
       </c>
       <c r="E98" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="F98" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.85699999999999998</v>
       </c>
     </row>
@@ -5518,11 +5541,11 @@
         <v>2750000</v>
       </c>
       <c r="E99" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="F99" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.58099999999999996</v>
       </c>
     </row>
@@ -5540,11 +5563,11 @@
         <v>13000000</v>
       </c>
       <c r="E100" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F100" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.95899999999999996</v>
       </c>
     </row>
@@ -5554,7 +5577,7 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:K2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:K2" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>$M$2:$M$6</formula1>
     </dataValidation>
   </dataValidations>
